--- a/Andrew-annotations/HY_Q4_2017.xlsx
+++ b/Andrew-annotations/HY_Q4_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946B94FB-49DF-49E5-BFEE-BC95DD40FEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0167CEF0-C2B6-49FE-AA8B-B0F7B94A4A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -837,13 +837,13 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -863,7 +863,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -872,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -907,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -959,7 +959,7 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1067,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1119,7 +1119,7 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -1151,22 +1151,22 @@
         <v>40</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
         <v>42</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>44</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1311,13 +1311,13 @@
         <v>50</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1343,10 +1343,10 @@
         <v>51</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1407,7 +1407,7 @@
         <v>54</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1439,7 +1439,7 @@
         <v>55</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="374.4" x14ac:dyDescent="0.3">
@@ -1471,22 +1471,22 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1547,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -1567,7 +1567,7 @@
         <v>64</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>68</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1675,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1692,22 +1692,22 @@
         <v>69</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -1724,22 +1724,22 @@
         <v>71</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
